--- a/www/IndicatorsPerCountry/BurkinaFaso_GDPperCapita_TerritorialRef_1960_2012_CCode_854.xlsx
+++ b/www/IndicatorsPerCountry/BurkinaFaso_GDPperCapita_TerritorialRef_1960_2012_CCode_854.xlsx
@@ -237,13 +237,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/BurkinaFaso_GDPperCapita_TerritorialRef_1960_2012_CCode_854.xlsx
+++ b/www/IndicatorsPerCountry/BurkinaFaso_GDPperCapita_TerritorialRef_1960_2012_CCode_854.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="83">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,178 +36,196 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>474</t>
-  </si>
-  <si>
-    <t>487</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>512</t>
-  </si>
-  <si>
-    <t>526</t>
-  </si>
-  <si>
-    <t>539</t>
-  </si>
-  <si>
-    <t>554</t>
-  </si>
-  <si>
-    <t>568</t>
-  </si>
-  <si>
-    <t>583</t>
-  </si>
-  <si>
-    <t>598</t>
-  </si>
-  <si>
-    <t>609</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>665</t>
-  </si>
-  <si>
-    <t>652</t>
-  </si>
-  <si>
-    <t>662</t>
-  </si>
-  <si>
-    <t>682</t>
-  </si>
-  <si>
-    <t>679</t>
-  </si>
-  <si>
-    <t>731</t>
-  </si>
-  <si>
-    <t>746</t>
-  </si>
-  <si>
-    <t>752</t>
-  </si>
-  <si>
-    <t>745</t>
-  </si>
-  <si>
-    <t>765</t>
-  </si>
-  <si>
-    <t>786</t>
-  </si>
-  <si>
-    <t>735</t>
-  </si>
-  <si>
-    <t>710</t>
-  </si>
-  <si>
-    <t>670</t>
-  </si>
-  <si>
-    <t>684</t>
-  </si>
-  <si>
-    <t>736</t>
-  </si>
-  <si>
-    <t>744</t>
-  </si>
-  <si>
-    <t>742</t>
-  </si>
-  <si>
-    <t>715</t>
-  </si>
-  <si>
-    <t>708</t>
-  </si>
-  <si>
-    <t>780</t>
-  </si>
-  <si>
-    <t>878</t>
+    <t>756</t>
+  </si>
+  <si>
+    <t>776</t>
+  </si>
+  <si>
+    <t>797</t>
+  </si>
+  <si>
+    <t>816</t>
   </si>
   <si>
     <t>838</t>
   </si>
   <si>
-    <t>880</t>
-  </si>
-  <si>
-    <t>842</t>
-  </si>
-  <si>
-    <t>807.076631615</t>
-  </si>
-  <si>
-    <t>851.634701611</t>
-  </si>
-  <si>
-    <t>825.65134522</t>
-  </si>
-  <si>
-    <t>826.235967827</t>
-  </si>
-  <si>
-    <t>807.979604311</t>
-  </si>
-  <si>
-    <t>825.518692731</t>
-  </si>
-  <si>
-    <t>887.986317266</t>
-  </si>
-  <si>
-    <t>915.209479283</t>
-  </si>
-  <si>
-    <t>952.269489391</t>
-  </si>
-  <si>
-    <t>979.92839396</t>
-  </si>
-  <si>
-    <t>977.133610925</t>
-  </si>
-  <si>
-    <t>1002.63552215</t>
-  </si>
-  <si>
-    <t>1000.91855675</t>
-  </si>
-  <si>
-    <t>1039.40793195</t>
-  </si>
-  <si>
-    <t>1052.69960358</t>
-  </si>
-  <si>
-    <t>1108.88247821</t>
-  </si>
-  <si>
-    <t>1142.10100303</t>
-  </si>
-  <si>
-    <t>1152.47577746</t>
-  </si>
-  <si>
-    <t>1182.09153906</t>
-  </si>
-  <si>
-    <t>1179.88496294</t>
-  </si>
-  <si>
-    <t>1234.0902892</t>
+    <t>859</t>
+  </si>
+  <si>
+    <t>883</t>
+  </si>
+  <si>
+    <t>905</t>
+  </si>
+  <si>
+    <t>929</t>
+  </si>
+  <si>
+    <t>953</t>
+  </si>
+  <si>
+    <t>971</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>1060</t>
+  </si>
+  <si>
+    <t>1039</t>
+  </si>
+  <si>
+    <t>1055</t>
+  </si>
+  <si>
+    <t>1087</t>
+  </si>
+  <si>
+    <t>1082</t>
+  </si>
+  <si>
+    <t>1165</t>
+  </si>
+  <si>
+    <t>1189</t>
+  </si>
+  <si>
+    <t>1199</t>
+  </si>
+  <si>
+    <t>1188</t>
+  </si>
+  <si>
+    <t>1219</t>
+  </si>
+  <si>
+    <t>1253</t>
+  </si>
+  <si>
+    <t>1172</t>
+  </si>
+  <si>
+    <t>1132</t>
+  </si>
+  <si>
+    <t>1068</t>
+  </si>
+  <si>
+    <t>1090</t>
+  </si>
+  <si>
+    <t>1173</t>
+  </si>
+  <si>
+    <t>1186</t>
+  </si>
+  <si>
+    <t>1183</t>
+  </si>
+  <si>
+    <t>1140</t>
+  </si>
+  <si>
+    <t>1129</t>
+  </si>
+  <si>
+    <t>1243</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>1336</t>
+  </si>
+  <si>
+    <t>1403</t>
+  </si>
+  <si>
+    <t>1342</t>
+  </si>
+  <si>
+    <t>1286</t>
+  </si>
+  <si>
+    <t>1331.2303122712</t>
+  </si>
+  <si>
+    <t>1264.99198183127</t>
+  </si>
+  <si>
+    <t>1240.14216512419</t>
+  </si>
+  <si>
+    <t>1189.12132354216</t>
+  </si>
+  <si>
+    <t>1191.30736189223</t>
+  </si>
+  <si>
+    <t>1255.77492223312</t>
+  </si>
+  <si>
+    <t>1268.26320224702</t>
+  </si>
+  <si>
+    <t>1293.57340354757</t>
+  </si>
+  <si>
+    <t>1318.71976131389</t>
+  </si>
+  <si>
+    <t>1275.48190817945</t>
+  </si>
+  <si>
+    <t>1283.38218124855</t>
+  </si>
+  <si>
+    <t>1255.55709087869</t>
+  </si>
+  <si>
+    <t>1277.58086076763</t>
+  </si>
+  <si>
+    <t>1268.68662703978</t>
+  </si>
+  <si>
+    <t>1309.98364411208</t>
+  </si>
+  <si>
+    <t>1322.63719662771</t>
+  </si>
+  <si>
+    <t>1308.52031683132</t>
+  </si>
+  <si>
+    <t>1315.45371606898</t>
+  </si>
+  <si>
+    <t>1287.36782837249</t>
+  </si>
+  <si>
+    <t>1326.19751726465</t>
+  </si>
+  <si>
+    <t>1344</t>
+  </si>
+  <si>
+    <t>1388</t>
+  </si>
+  <si>
+    <t>1422</t>
+  </si>
+  <si>
+    <t>1437</t>
+  </si>
+  <si>
+    <t>1450</t>
+  </si>
+  <si>
+    <t>1483</t>
   </si>
   <si>
     <t>Description</t>
@@ -1348,6 +1366,108 @@
         <v>64</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>854.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>854.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>854.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>854.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>854.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>854.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1363,50 +1483,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
